--- a/data/pca/factorExposure/factorExposure_2018-10-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03908182416603213</v>
+        <v>0.03486635284729266</v>
       </c>
       <c r="C2">
-        <v>0.05180663278550363</v>
+        <v>0.007090879273888087</v>
       </c>
       <c r="D2">
-        <v>0.03063372956212307</v>
+        <v>0.01068607104189224</v>
       </c>
       <c r="E2">
-        <v>-0.0589487727000509</v>
+        <v>-0.01553350119541158</v>
       </c>
       <c r="F2">
-        <v>-0.1337714452578995</v>
+        <v>0.02757263155175669</v>
       </c>
       <c r="G2">
-        <v>0.1131223854193527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.0754470099838128</v>
+      </c>
+      <c r="H2">
+        <v>-0.0178604443686513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1390830349923008</v>
+        <v>0.08849576549505983</v>
       </c>
       <c r="C3">
-        <v>0.01281100518453604</v>
+        <v>-0.03468794767402834</v>
       </c>
       <c r="D3">
-        <v>0.03148951212384093</v>
+        <v>0.02698240044010649</v>
       </c>
       <c r="E3">
-        <v>-0.09075958171072944</v>
+        <v>-0.01023827411374499</v>
       </c>
       <c r="F3">
-        <v>-0.3555265122022714</v>
+        <v>-0.002244171150547434</v>
       </c>
       <c r="G3">
-        <v>0.2581077766400247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2651378995612584</v>
+      </c>
+      <c r="H3">
+        <v>-0.03288964720856212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04350510567378703</v>
+        <v>0.04520771053549456</v>
       </c>
       <c r="C4">
-        <v>0.0354361327280001</v>
+        <v>-0.003919899133748701</v>
       </c>
       <c r="D4">
-        <v>-0.008615137374740893</v>
+        <v>0.02216715093860676</v>
       </c>
       <c r="E4">
-        <v>-0.06575005155035045</v>
+        <v>0.02029056751507649</v>
       </c>
       <c r="F4">
-        <v>-0.05837112613034328</v>
+        <v>0.06301339919481705</v>
       </c>
       <c r="G4">
-        <v>0.05474245955202982</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0408316361466292</v>
+      </c>
+      <c r="H4">
+        <v>-0.03041656217771063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009951454557476968</v>
+        <v>0.0312543807795508</v>
       </c>
       <c r="C6">
-        <v>0.001321178766433462</v>
+        <v>-0.00328253992360652</v>
       </c>
       <c r="D6">
-        <v>0.009940806032671029</v>
+        <v>0.03056457059995794</v>
       </c>
       <c r="E6">
-        <v>-0.007366526807175383</v>
+        <v>0.003117317154022181</v>
       </c>
       <c r="F6">
-        <v>-0.01216446852318918</v>
+        <v>0.03898015538362127</v>
       </c>
       <c r="G6">
-        <v>-0.01514072427630873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.008218685627640677</v>
+      </c>
+      <c r="H6">
+        <v>-0.05298161331442583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02649769848411188</v>
+        <v>0.02276788632677502</v>
       </c>
       <c r="C7">
-        <v>0.01921244519378449</v>
+        <v>-0.002533740566299052</v>
       </c>
       <c r="D7">
-        <v>0.02554600848429194</v>
+        <v>0.01725054072997482</v>
       </c>
       <c r="E7">
-        <v>-0.04216523491934944</v>
+        <v>0.0349122357633452</v>
       </c>
       <c r="F7">
-        <v>-0.06882445090841692</v>
+        <v>0.02649755204352862</v>
       </c>
       <c r="G7">
-        <v>0.05765217464047015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03256675234618022</v>
+      </c>
+      <c r="H7">
+        <v>-0.01798339762950317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008459783332683764</v>
+        <v>0.001407991948388879</v>
       </c>
       <c r="C8">
-        <v>0.007377057325149441</v>
+        <v>-0.0008734780391431846</v>
       </c>
       <c r="D8">
-        <v>-0.008039209188322325</v>
+        <v>0.0157045637296056</v>
       </c>
       <c r="E8">
-        <v>-0.07264405603439493</v>
+        <v>0.01225062862752435</v>
       </c>
       <c r="F8">
-        <v>-0.09159548997508909</v>
+        <v>0.02907183282924987</v>
       </c>
       <c r="G8">
-        <v>0.06709224093843444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04972521436074259</v>
+      </c>
+      <c r="H8">
+        <v>-0.008654085997790693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03578476985860555</v>
+        <v>0.03627067573421074</v>
       </c>
       <c r="C9">
-        <v>0.02784267639777665</v>
+        <v>-0.006577132186742158</v>
       </c>
       <c r="D9">
-        <v>-0.0229150106308066</v>
+        <v>0.0195503465554369</v>
       </c>
       <c r="E9">
-        <v>-0.0683654514586045</v>
+        <v>0.01912685540109956</v>
       </c>
       <c r="F9">
-        <v>-0.07097443854733655</v>
+        <v>0.04030279533489494</v>
       </c>
       <c r="G9">
-        <v>0.03856897331853406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05896497880162437</v>
+      </c>
+      <c r="H9">
+        <v>-0.03196978627283096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05065796482789964</v>
+        <v>0.07281716909709428</v>
       </c>
       <c r="C10">
-        <v>0.05707938347605707</v>
+        <v>-0.03915340526878006</v>
       </c>
       <c r="D10">
-        <v>-0.01747332532339607</v>
+        <v>-0.1452511855723718</v>
       </c>
       <c r="E10">
-        <v>0.1187142241802757</v>
+        <v>-0.01324946449966479</v>
       </c>
       <c r="F10">
-        <v>-0.06275730905869474</v>
+        <v>-0.08918505948967309</v>
       </c>
       <c r="G10">
-        <v>-0.01045985165018148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.03712938874376301</v>
+      </c>
+      <c r="H10">
+        <v>-0.007927680111476043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03138215784539412</v>
+        <v>0.02285681429027183</v>
       </c>
       <c r="C11">
-        <v>0.01123823652261147</v>
+        <v>-0.01361551025459251</v>
       </c>
       <c r="D11">
-        <v>0.01192029871461796</v>
+        <v>0.02962274264858933</v>
       </c>
       <c r="E11">
-        <v>-0.03391101151034306</v>
+        <v>-0.005228119207636086</v>
       </c>
       <c r="F11">
-        <v>-0.03709000825441332</v>
+        <v>0.02566801612221023</v>
       </c>
       <c r="G11">
-        <v>0.02043997569466464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03181352843591836</v>
+      </c>
+      <c r="H11">
+        <v>-0.02900118428905285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03877699829973007</v>
+        <v>0.0313481271886977</v>
       </c>
       <c r="C12">
-        <v>0.01172588089789256</v>
+        <v>-0.01335975627238491</v>
       </c>
       <c r="D12">
-        <v>0.002172909609008412</v>
+        <v>0.03012444732181675</v>
       </c>
       <c r="E12">
-        <v>-0.0473079918901144</v>
+        <v>0.005057898593285861</v>
       </c>
       <c r="F12">
-        <v>-0.02429227939370695</v>
+        <v>0.02928489095305687</v>
       </c>
       <c r="G12">
-        <v>0.01371629777453395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.006678910955712346</v>
+      </c>
+      <c r="H12">
+        <v>-0.01647232496417062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02134821054108524</v>
+        <v>0.02883412840388004</v>
       </c>
       <c r="C13">
-        <v>0.02056256282949258</v>
+        <v>0.007727103861191204</v>
       </c>
       <c r="D13">
-        <v>0.03121139136349417</v>
+        <v>0.00224388179685413</v>
       </c>
       <c r="E13">
-        <v>-0.02825990233824638</v>
+        <v>-0.01615828297830069</v>
       </c>
       <c r="F13">
-        <v>-0.08292934843631312</v>
+        <v>0.01959326631890149</v>
       </c>
       <c r="G13">
-        <v>0.05852139310094129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05922254817966624</v>
+      </c>
+      <c r="H13">
+        <v>-0.02718670195444236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01230171450919457</v>
+        <v>0.01632780893191819</v>
       </c>
       <c r="C14">
-        <v>0.02210324963831254</v>
+        <v>-0.0034572489760441</v>
       </c>
       <c r="D14">
-        <v>0.001933953863688305</v>
+        <v>0.001236061051131388</v>
       </c>
       <c r="E14">
-        <v>-0.04015856895211563</v>
+        <v>0.007170089337327121</v>
       </c>
       <c r="F14">
-        <v>-0.06298777036099687</v>
+        <v>0.02648232104195135</v>
       </c>
       <c r="G14">
-        <v>0.06160349939414868</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03841423113079766</v>
+      </c>
+      <c r="H14">
+        <v>0.01899710104658927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02500292164930111</v>
+        <v>0.02300559403702894</v>
       </c>
       <c r="C16">
-        <v>0.01221546216753228</v>
+        <v>-0.01374725156639552</v>
       </c>
       <c r="D16">
-        <v>0.01103403232683027</v>
+        <v>0.02953609711724043</v>
       </c>
       <c r="E16">
-        <v>-0.03651073251968804</v>
+        <v>-0.0005622667368589642</v>
       </c>
       <c r="F16">
-        <v>-0.03792728267639945</v>
+        <v>0.02876026356360083</v>
       </c>
       <c r="G16">
-        <v>0.02689798749681717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02482981443132381</v>
+      </c>
+      <c r="H16">
+        <v>-0.0221528935287491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03462489709954002</v>
+        <v>0.03525735643332673</v>
       </c>
       <c r="C19">
-        <v>0.01331394515850262</v>
+        <v>-0.007723629941656629</v>
       </c>
       <c r="D19">
-        <v>0.01744371023515245</v>
+        <v>0.007307014293970678</v>
       </c>
       <c r="E19">
-        <v>-0.04154912801792679</v>
+        <v>-0.002550349922523429</v>
       </c>
       <c r="F19">
-        <v>-0.09587330466383709</v>
+        <v>0.03108720902785625</v>
       </c>
       <c r="G19">
-        <v>0.06321445920154259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.06285808209028756</v>
+      </c>
+      <c r="H19">
+        <v>-0.03993037055541546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001461435933608465</v>
+        <v>0.009241402707257268</v>
       </c>
       <c r="C20">
-        <v>0.0152750796922003</v>
+        <v>0.005655504082059344</v>
       </c>
       <c r="D20">
-        <v>0.002629785219306237</v>
+        <v>0.007671295976911175</v>
       </c>
       <c r="E20">
-        <v>-0.04302109727053182</v>
+        <v>0.002885544146851821</v>
       </c>
       <c r="F20">
-        <v>-0.05721268187857782</v>
+        <v>0.01764052243637728</v>
       </c>
       <c r="G20">
-        <v>0.07371356128720871</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04534587123194287</v>
+      </c>
+      <c r="H20">
+        <v>0.01137518969430455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.003868432845921336</v>
+        <v>0.02248222225426101</v>
       </c>
       <c r="C21">
-        <v>-0.001249446450507936</v>
+        <v>0.001906817787785603</v>
       </c>
       <c r="D21">
-        <v>0.00794138480767502</v>
+        <v>-0.0006207581822840739</v>
       </c>
       <c r="E21">
-        <v>-0.03368526261072382</v>
+        <v>0.01137011760770582</v>
       </c>
       <c r="F21">
-        <v>-0.09063764885097131</v>
+        <v>0.00819629743908052</v>
       </c>
       <c r="G21">
-        <v>0.0250894895163703</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05519603251116827</v>
+      </c>
+      <c r="H21">
+        <v>-0.01287970240698968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02669536798643891</v>
+        <v>0.02344796535795198</v>
       </c>
       <c r="C24">
-        <v>0.01074732824224557</v>
+        <v>-0.008760841207415567</v>
       </c>
       <c r="D24">
-        <v>0.007683342761691198</v>
+        <v>0.02725816450874792</v>
       </c>
       <c r="E24">
-        <v>-0.02961606826338921</v>
+        <v>-0.0004471104689746822</v>
       </c>
       <c r="F24">
-        <v>-0.04031361307970379</v>
+        <v>0.02318170525488403</v>
       </c>
       <c r="G24">
-        <v>0.01313548679110987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02650721051272787</v>
+      </c>
+      <c r="H24">
+        <v>-0.02970959576765448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02938976146723421</v>
+        <v>0.03329865776914616</v>
       </c>
       <c r="C25">
-        <v>0.009857462087217153</v>
+        <v>-0.008762407960314042</v>
       </c>
       <c r="D25">
-        <v>0.00576385545175002</v>
+        <v>0.02070954107264438</v>
       </c>
       <c r="E25">
-        <v>-0.03500325407937729</v>
+        <v>0.0001099472787751586</v>
       </c>
       <c r="F25">
-        <v>-0.04355675943982496</v>
+        <v>0.02769491519545625</v>
       </c>
       <c r="G25">
-        <v>0.00564813735429746</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03222261020902981</v>
+      </c>
+      <c r="H25">
+        <v>-0.03253327702381317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01711867459297153</v>
+        <v>0.02031829640130107</v>
       </c>
       <c r="C26">
-        <v>-0.0001557121033292842</v>
+        <v>0.01482668043696393</v>
       </c>
       <c r="D26">
-        <v>0.03242597563929826</v>
+        <v>0.008026353080190072</v>
       </c>
       <c r="E26">
-        <v>-0.04708270736843039</v>
+        <v>-0.006001786560613063</v>
       </c>
       <c r="F26">
-        <v>-0.05932946401702586</v>
+        <v>0.006600646177796101</v>
       </c>
       <c r="G26">
-        <v>0.03432657435022576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03581044129690176</v>
+      </c>
+      <c r="H26">
+        <v>-0.002766963618805769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0701473259394995</v>
+        <v>0.03163879809203696</v>
       </c>
       <c r="C27">
-        <v>0.05194175402403988</v>
+        <v>-0.01942501010498932</v>
       </c>
       <c r="D27">
-        <v>-0.007241605558912446</v>
+        <v>0.000854987316635049</v>
       </c>
       <c r="E27">
-        <v>-0.04827589395129783</v>
+        <v>0.00359298930459567</v>
       </c>
       <c r="F27">
-        <v>-0.0616662918410216</v>
+        <v>0.02509261053247542</v>
       </c>
       <c r="G27">
-        <v>0.05784533228126205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02555077456176624</v>
+      </c>
+      <c r="H27">
+        <v>2.425953574495309e-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07380497239332953</v>
+        <v>0.114729042255993</v>
       </c>
       <c r="C28">
-        <v>0.07419742863983932</v>
+        <v>-0.04673112046495374</v>
       </c>
       <c r="D28">
-        <v>-0.0372309281959167</v>
+        <v>-0.2153739401036956</v>
       </c>
       <c r="E28">
-        <v>0.1884353308206822</v>
+        <v>-0.01401906699343416</v>
       </c>
       <c r="F28">
-        <v>-0.0604514682907295</v>
+        <v>-0.1275322569516451</v>
       </c>
       <c r="G28">
-        <v>0.0193485690717055</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01808575808821678</v>
+      </c>
+      <c r="H28">
+        <v>0.005097575086368955</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01984700204796822</v>
+        <v>0.02102506046405789</v>
       </c>
       <c r="C29">
-        <v>0.02233358813817448</v>
+        <v>-0.006472643066789069</v>
       </c>
       <c r="D29">
-        <v>-0.003080087517004646</v>
+        <v>0.003408080214887431</v>
       </c>
       <c r="E29">
-        <v>-0.05891996762568334</v>
+        <v>0.008255573604776804</v>
       </c>
       <c r="F29">
-        <v>-0.05444378442604047</v>
+        <v>0.02901758512744774</v>
       </c>
       <c r="G29">
-        <v>0.05794592699352599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03259746493961573</v>
+      </c>
+      <c r="H29">
+        <v>0.0174551390468362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07964751545237576</v>
+        <v>0.05693034443254563</v>
       </c>
       <c r="C30">
-        <v>0.05762585421365751</v>
+        <v>-0.009154920842895606</v>
       </c>
       <c r="D30">
-        <v>0.03483338615217251</v>
+        <v>0.04433727842647389</v>
       </c>
       <c r="E30">
-        <v>-0.09935935806971238</v>
+        <v>-0.03988567538014514</v>
       </c>
       <c r="F30">
-        <v>-0.07533597001707343</v>
+        <v>0.0826389917782924</v>
       </c>
       <c r="G30">
-        <v>0.0289793323085623</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06422525295583834</v>
+      </c>
+      <c r="H30">
+        <v>-0.0402415158847789</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05542429535933231</v>
+        <v>0.05230204542107184</v>
       </c>
       <c r="C31">
-        <v>0.02315180195903694</v>
+        <v>-0.02544841886862565</v>
       </c>
       <c r="D31">
-        <v>0.04434206048977646</v>
+        <v>0.0157476776820517</v>
       </c>
       <c r="E31">
-        <v>-0.03110039458468716</v>
+        <v>-0.01191372140967706</v>
       </c>
       <c r="F31">
-        <v>-0.03673641476501145</v>
+        <v>0.02250177821294153</v>
       </c>
       <c r="G31">
-        <v>0.08350578231890748</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01464687422258993</v>
+      </c>
+      <c r="H31">
+        <v>0.01452163908538866</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01227130078054119</v>
+        <v>0.006459824443942365</v>
       </c>
       <c r="C32">
-        <v>0.02056287365251081</v>
+        <v>-0.01530076252117721</v>
       </c>
       <c r="D32">
-        <v>-0.006920726359434345</v>
+        <v>-0.002039053591715902</v>
       </c>
       <c r="E32">
-        <v>-0.08173902569368635</v>
+        <v>0.01916770327422598</v>
       </c>
       <c r="F32">
-        <v>-0.07128514687584742</v>
+        <v>0.04443441979226841</v>
       </c>
       <c r="G32">
-        <v>0.04559155285764997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.04523260988392513</v>
+      </c>
+      <c r="H32">
+        <v>-0.04468410487816694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04860737739395421</v>
+        <v>0.03943294204141776</v>
       </c>
       <c r="C33">
-        <v>0.004596232633012827</v>
+        <v>-0.008527065110260227</v>
       </c>
       <c r="D33">
-        <v>0.0398468896750193</v>
+        <v>0.02866155733046738</v>
       </c>
       <c r="E33">
-        <v>-0.06724140081614854</v>
+        <v>-0.02381107084738986</v>
       </c>
       <c r="F33">
-        <v>-0.09241544434699435</v>
+        <v>0.01739741425254641</v>
       </c>
       <c r="G33">
-        <v>0.04819766282053674</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05719231444955099</v>
+      </c>
+      <c r="H33">
+        <v>-0.02051322606165111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02843477860758715</v>
+        <v>0.02490403905764569</v>
       </c>
       <c r="C34">
-        <v>0.01714915210811385</v>
+        <v>-0.0223804141882034</v>
       </c>
       <c r="D34">
-        <v>0.009113210095676814</v>
+        <v>0.02506812011202661</v>
       </c>
       <c r="E34">
-        <v>-0.03809121534285693</v>
+        <v>0.00371083739508752</v>
       </c>
       <c r="F34">
-        <v>-0.04509280020741275</v>
+        <v>0.02838901156180213</v>
       </c>
       <c r="G34">
-        <v>0.01083675551536996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0250996856057605</v>
+      </c>
+      <c r="H34">
+        <v>-0.02762582930940662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01227490182929888</v>
+        <v>0.01846431047521528</v>
       </c>
       <c r="C36">
-        <v>0.009963063634379642</v>
+        <v>0.001381422034901421</v>
       </c>
       <c r="D36">
-        <v>0.0001755442648592997</v>
+        <v>-0.001265966831807017</v>
       </c>
       <c r="E36">
-        <v>-0.03036769311445759</v>
+        <v>0.002566605930951475</v>
       </c>
       <c r="F36">
-        <v>-0.03271965605270052</v>
+        <v>0.007015135042921271</v>
       </c>
       <c r="G36">
-        <v>0.03310507845336099</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02123007704516615</v>
+      </c>
+      <c r="H36">
+        <v>0.001222430303752171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005782070940108252</v>
+        <v>0.01311438441957578</v>
       </c>
       <c r="C38">
-        <v>-0.002290019457437828</v>
+        <v>-0.01748312192392355</v>
       </c>
       <c r="D38">
-        <v>-0.01545892437041205</v>
+        <v>-0.0007898021423793145</v>
       </c>
       <c r="E38">
-        <v>0.005644950564116257</v>
+        <v>0.007126816115102453</v>
       </c>
       <c r="F38">
-        <v>-0.008312236710074186</v>
+        <v>0.009865828281047812</v>
       </c>
       <c r="G38">
-        <v>-0.001756092335435864</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02434276355626154</v>
+      </c>
+      <c r="H38">
+        <v>-0.01937683621270501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03649215472204358</v>
+        <v>0.02679864566898298</v>
       </c>
       <c r="C39">
-        <v>0.02338278088489584</v>
+        <v>-0.008534931731088375</v>
       </c>
       <c r="D39">
-        <v>0.02570407343951065</v>
+        <v>0.06014605404260367</v>
       </c>
       <c r="E39">
-        <v>-0.03691515798301594</v>
+        <v>-0.005645934029013079</v>
       </c>
       <c r="F39">
-        <v>-0.04938790716735621</v>
+        <v>0.05114673042746408</v>
       </c>
       <c r="G39">
-        <v>0.02163644489096828</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04930994264500554</v>
+      </c>
+      <c r="H39">
+        <v>-0.05175969563549834</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0287180030597367</v>
+        <v>0.03077931261988887</v>
       </c>
       <c r="C40">
-        <v>0.038082395462166</v>
+        <v>-0.007537361891589971</v>
       </c>
       <c r="D40">
-        <v>0.04805131843774624</v>
+        <v>0.01905192370372036</v>
       </c>
       <c r="E40">
-        <v>-0.0510785257268383</v>
+        <v>-0.02006091693451382</v>
       </c>
       <c r="F40">
-        <v>-0.07538870472749611</v>
+        <v>0.04000691069343492</v>
       </c>
       <c r="G40">
-        <v>0.07552333954059753</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.03504867673249223</v>
+      </c>
+      <c r="H40">
+        <v>-0.04823828057145435</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.004676359360143187</v>
+        <v>0.007078977761272273</v>
       </c>
       <c r="C41">
-        <v>-0.008153071743815635</v>
+        <v>0.0005703821132733441</v>
       </c>
       <c r="D41">
-        <v>0.006227291386984865</v>
+        <v>-0.006211885967165287</v>
       </c>
       <c r="E41">
-        <v>-0.01839250038495491</v>
+        <v>-0.001089860256636466</v>
       </c>
       <c r="F41">
-        <v>-0.01853236851535323</v>
+        <v>-0.005718689366282056</v>
       </c>
       <c r="G41">
-        <v>0.05927397756272804</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.006103648109780761</v>
+      </c>
+      <c r="H41">
+        <v>0.01794008980045038</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4090600872241498</v>
+        <v>0.2560567875862281</v>
       </c>
       <c r="C42">
-        <v>-0.8599026389564032</v>
+        <v>0.04622489175102831</v>
       </c>
       <c r="D42">
-        <v>0.2074272846147069</v>
+        <v>0.612864334232252</v>
       </c>
       <c r="E42">
-        <v>0.1291005342685081</v>
+        <v>-0.1373344554542561</v>
       </c>
       <c r="F42">
-        <v>0.02378335787863834</v>
+        <v>-0.7157526740171412</v>
       </c>
       <c r="G42">
-        <v>0.001217754511246531</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.08431675313065197</v>
+      </c>
+      <c r="H42">
+        <v>-0.02857556742827313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01083029579440263</v>
+        <v>0.004685355067212004</v>
       </c>
       <c r="C43">
-        <v>-0.003958228046260816</v>
+        <v>0.003192751319011856</v>
       </c>
       <c r="D43">
-        <v>0.01078497715767221</v>
+        <v>-0.008239114110417854</v>
       </c>
       <c r="E43">
-        <v>-0.02064886930565578</v>
+        <v>-0.004861678334620698</v>
       </c>
       <c r="F43">
-        <v>-0.03467457758499477</v>
+        <v>-0.0094156807993466</v>
       </c>
       <c r="G43">
-        <v>0.05509637178538259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01412577559699681</v>
+      </c>
+      <c r="H43">
+        <v>0.01185485099933782</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01894311163438726</v>
+        <v>0.01218539148187569</v>
       </c>
       <c r="C44">
-        <v>0.004625485349352556</v>
+        <v>-0.001711196687018992</v>
       </c>
       <c r="D44">
-        <v>0.01957929213084966</v>
+        <v>0.02653716120028246</v>
       </c>
       <c r="E44">
-        <v>-0.06587022120641059</v>
+        <v>0.002126129388409964</v>
       </c>
       <c r="F44">
-        <v>-0.1824916018802349</v>
+        <v>0.009801298843791587</v>
       </c>
       <c r="G44">
-        <v>0.1812950272272834</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08473933853352647</v>
+      </c>
+      <c r="H44">
+        <v>-0.01659101748042068</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0166501787785548</v>
+        <v>0.02146827313444045</v>
       </c>
       <c r="C46">
-        <v>0.02147515589882713</v>
+        <v>-0.002613519110138379</v>
       </c>
       <c r="D46">
-        <v>0.01320865772784756</v>
+        <v>0.00565123223224525</v>
       </c>
       <c r="E46">
-        <v>-0.05545803818854982</v>
+        <v>-0.003769657260133522</v>
       </c>
       <c r="F46">
-        <v>-0.05803406792373426</v>
+        <v>0.03435183149705751</v>
       </c>
       <c r="G46">
-        <v>0.04336318034999088</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04777411164579169</v>
+      </c>
+      <c r="H46">
+        <v>0.01526352755636539</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0917149200291435</v>
+        <v>0.07177137322958123</v>
       </c>
       <c r="C47">
-        <v>0.03777820463131523</v>
+        <v>-0.04568219147863093</v>
       </c>
       <c r="D47">
-        <v>0.0227764488355439</v>
+        <v>0.01873161999317124</v>
       </c>
       <c r="E47">
-        <v>-0.04832328399840132</v>
+        <v>-0.007899901634999382</v>
       </c>
       <c r="F47">
-        <v>0.0006947929006102026</v>
+        <v>0.03422519498156625</v>
       </c>
       <c r="G47">
-        <v>0.07255405003286622</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01783083958797486</v>
+      </c>
+      <c r="H47">
+        <v>0.02915457047952282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.007171421702688008</v>
+        <v>0.01624563498750031</v>
       </c>
       <c r="C48">
-        <v>0.005268113935173023</v>
+        <v>-0.008143381582607094</v>
       </c>
       <c r="D48">
-        <v>0.01144104579714304</v>
+        <v>0.004487670656719799</v>
       </c>
       <c r="E48">
-        <v>-0.04449351749430074</v>
+        <v>-0.001378284937921199</v>
       </c>
       <c r="F48">
-        <v>-0.0483044932311764</v>
+        <v>0.01219470180466697</v>
       </c>
       <c r="G48">
-        <v>0.009877024776371219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02678534738657766</v>
+      </c>
+      <c r="H48">
+        <v>-0.004921053276336253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08406917026219668</v>
+        <v>0.06573346697853807</v>
       </c>
       <c r="C50">
-        <v>0.02346761499003867</v>
+        <v>-0.03903488380043197</v>
       </c>
       <c r="D50">
-        <v>0.03569974225704874</v>
+        <v>0.03329972860864126</v>
       </c>
       <c r="E50">
-        <v>-0.05169887127669806</v>
+        <v>0.005211094329182771</v>
       </c>
       <c r="F50">
-        <v>-0.0234934567752976</v>
+        <v>0.03372418282641584</v>
       </c>
       <c r="G50">
-        <v>0.01145597937677762</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01435887390684723</v>
+      </c>
+      <c r="H50">
+        <v>0.02415528763508808</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03916318377815223</v>
+        <v>0.02665668639711941</v>
       </c>
       <c r="C51">
-        <v>-0.0001800580527993194</v>
+        <v>-0.00576822580399773</v>
       </c>
       <c r="D51">
-        <v>0.04476971546412576</v>
+        <v>-0.00274650308900595</v>
       </c>
       <c r="E51">
-        <v>-0.02086628851086036</v>
+        <v>-0.01343250025245802</v>
       </c>
       <c r="F51">
-        <v>-0.1562805013176707</v>
+        <v>-0.01760502882823952</v>
       </c>
       <c r="G51">
-        <v>0.07452738977744884</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.08256023212116458</v>
+      </c>
+      <c r="H51">
+        <v>-0.02512710930696085</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.103119062076962</v>
+        <v>0.09272042808633674</v>
       </c>
       <c r="C53">
-        <v>0.04975921042479032</v>
+        <v>-0.05827431760705816</v>
       </c>
       <c r="D53">
-        <v>0.04001972302051653</v>
+        <v>0.04156364653021963</v>
       </c>
       <c r="E53">
-        <v>-0.06262018561774925</v>
+        <v>-0.007000987236701943</v>
       </c>
       <c r="F53">
-        <v>0.06151899917599771</v>
+        <v>0.06907868021560699</v>
       </c>
       <c r="G53">
-        <v>0.03123287610144869</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.06098612281379638</v>
+      </c>
+      <c r="H53">
+        <v>0.03370154482957792</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02134113904334943</v>
+        <v>0.02221814991516402</v>
       </c>
       <c r="C54">
-        <v>0.03933252024759156</v>
+        <v>-0.01771325595489181</v>
       </c>
       <c r="D54">
-        <v>0.001356264014851879</v>
+        <v>-0.02318722064606047</v>
       </c>
       <c r="E54">
-        <v>-0.03566433857165176</v>
+        <v>0.003233648674414071</v>
       </c>
       <c r="F54">
-        <v>-0.07061000685776646</v>
+        <v>0.01254102561766494</v>
       </c>
       <c r="G54">
-        <v>0.06290063144065229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.04105807204516659</v>
+      </c>
+      <c r="H54">
+        <v>0.02169266637598855</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1015997065760426</v>
+        <v>0.07997758858870392</v>
       </c>
       <c r="C55">
-        <v>0.03545105270702929</v>
+        <v>-0.0511729089581098</v>
       </c>
       <c r="D55">
-        <v>-0.005048252042018839</v>
+        <v>0.04265065215148303</v>
       </c>
       <c r="E55">
-        <v>-0.06241254317841143</v>
+        <v>0.006035774742998778</v>
       </c>
       <c r="F55">
-        <v>0.05730777199263931</v>
+        <v>0.05833286677251034</v>
       </c>
       <c r="G55">
-        <v>0.05328504346778486</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03928291871752098</v>
+      </c>
+      <c r="H55">
+        <v>0.05005718054427705</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1402009611932929</v>
+        <v>0.1204422275421224</v>
       </c>
       <c r="C56">
-        <v>0.07714292642355688</v>
+        <v>-0.08266816127700828</v>
       </c>
       <c r="D56">
-        <v>0.02177447299503745</v>
+        <v>0.05401997624526216</v>
       </c>
       <c r="E56">
-        <v>-0.08068382457168288</v>
+        <v>-0.002507270215226847</v>
       </c>
       <c r="F56">
-        <v>0.1610036137288193</v>
+        <v>0.09626103536290843</v>
       </c>
       <c r="G56">
-        <v>0.01237437646662428</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1041679645588163</v>
+      </c>
+      <c r="H56">
+        <v>0.02526059675916219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04027692087978568</v>
+        <v>0.04237880837163588</v>
       </c>
       <c r="C57">
-        <v>0.01705983870283789</v>
+        <v>0.001666820392123728</v>
       </c>
       <c r="D57">
-        <v>0.028726294242551</v>
+        <v>0.01783236132819949</v>
       </c>
       <c r="E57">
-        <v>-0.02348352973536285</v>
+        <v>-0.01276426934716389</v>
       </c>
       <c r="F57">
-        <v>-0.0764144949989575</v>
+        <v>0.02629639003792963</v>
       </c>
       <c r="G57">
-        <v>0.03522345471339544</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06552191030678733</v>
+      </c>
+      <c r="H57">
+        <v>-0.01373462844901072</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2077483475393068</v>
+        <v>0.1559630883672233</v>
       </c>
       <c r="C58">
-        <v>0.06846359428440255</v>
+        <v>-0.08013457578790192</v>
       </c>
       <c r="D58">
-        <v>0.1099664743396781</v>
+        <v>0.1106115563883188</v>
       </c>
       <c r="E58">
-        <v>-0.1939129337116566</v>
+        <v>-0.1281641541808851</v>
       </c>
       <c r="F58">
-        <v>-0.3121744614167388</v>
+        <v>0.06970911245976895</v>
       </c>
       <c r="G58">
-        <v>-0.3264644002788337</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6701494716607362</v>
+      </c>
+      <c r="H58">
+        <v>0.5692738231416988</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07339957574219726</v>
+        <v>0.1161956532106139</v>
       </c>
       <c r="C59">
-        <v>0.09597620286471922</v>
+        <v>-0.05439949012284002</v>
       </c>
       <c r="D59">
-        <v>-0.03350729852059856</v>
+        <v>-0.2107159321030363</v>
       </c>
       <c r="E59">
-        <v>0.1455578683852506</v>
+        <v>-0.02801254760809964</v>
       </c>
       <c r="F59">
-        <v>-0.05772946976777429</v>
+        <v>-0.1035638857825724</v>
       </c>
       <c r="G59">
-        <v>0.01019942002487174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02669804532665122</v>
+      </c>
+      <c r="H59">
+        <v>-0.02482259193149719</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1622457185589284</v>
+        <v>0.162221877873628</v>
       </c>
       <c r="C60">
-        <v>0.07892768168846268</v>
+        <v>-0.07179502703884824</v>
       </c>
       <c r="D60">
-        <v>0.06088633934719979</v>
+        <v>-0.008950774067197808</v>
       </c>
       <c r="E60">
-        <v>-0.01799798438609005</v>
+        <v>-0.05543318072389184</v>
       </c>
       <c r="F60">
-        <v>-0.1017546184538702</v>
+        <v>0.07198385970650803</v>
       </c>
       <c r="G60">
-        <v>-0.2806331269973254</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1367233124317901</v>
+      </c>
+      <c r="H60">
+        <v>-0.3555583307653541</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01902178274325746</v>
+        <v>0.02251441012000441</v>
       </c>
       <c r="C61">
-        <v>0.01112749385180527</v>
+        <v>-0.01168665305470215</v>
       </c>
       <c r="D61">
-        <v>0.002845925524449029</v>
+        <v>0.03143907751291623</v>
       </c>
       <c r="E61">
-        <v>-0.0213060136831368</v>
+        <v>0.001001141445602627</v>
       </c>
       <c r="F61">
-        <v>-0.04232453795074792</v>
+        <v>0.03589640846469579</v>
       </c>
       <c r="G61">
-        <v>0.006182750750899531</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03168342014284466</v>
+      </c>
+      <c r="H61">
+        <v>-0.03851610166789553</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01691545637203881</v>
+        <v>0.01429543164289178</v>
       </c>
       <c r="C63">
-        <v>0.01578971690563954</v>
+        <v>-0.001531880374438894</v>
       </c>
       <c r="D63">
-        <v>0.01203587668642262</v>
+        <v>0.005266496088162928</v>
       </c>
       <c r="E63">
-        <v>-0.0452903469753088</v>
+        <v>0.001025984882192473</v>
       </c>
       <c r="F63">
-        <v>-0.01835241616800792</v>
+        <v>0.02194389675367195</v>
       </c>
       <c r="G63">
-        <v>0.03405916408362542</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01678522335694929</v>
+      </c>
+      <c r="H63">
+        <v>0.007284557284200001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0286932377740604</v>
+        <v>0.03873661059401585</v>
       </c>
       <c r="C64">
-        <v>0.02103630654568127</v>
+        <v>-0.01863825475629606</v>
       </c>
       <c r="D64">
-        <v>-0.0207378896628441</v>
+        <v>0.02613877161091447</v>
       </c>
       <c r="E64">
-        <v>-0.0475077387445834</v>
+        <v>0.01134581097733383</v>
       </c>
       <c r="F64">
-        <v>-0.02264735348493886</v>
+        <v>0.03276417206074884</v>
       </c>
       <c r="G64">
-        <v>0.0633276492713354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.008430158831594878</v>
+      </c>
+      <c r="H64">
+        <v>-0.0301599405835557</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01000983032409847</v>
+        <v>0.03623152532931536</v>
       </c>
       <c r="C65">
-        <v>-0.000216560910232709</v>
+        <v>-0.003826849389716228</v>
       </c>
       <c r="D65">
-        <v>0.00880443763717113</v>
+        <v>0.03370507315277916</v>
       </c>
       <c r="E65">
-        <v>-0.003218954108312603</v>
+        <v>0.003060556406895192</v>
       </c>
       <c r="F65">
-        <v>-0.008964411369749275</v>
+        <v>0.03949485995982447</v>
       </c>
       <c r="G65">
-        <v>-0.01696065957271308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.000956466412328462</v>
+      </c>
+      <c r="H65">
+        <v>-0.06173469845592915</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03836884057592582</v>
+        <v>0.03395338595968705</v>
       </c>
       <c r="C66">
-        <v>0.02679848424571092</v>
+        <v>-0.01572207049042337</v>
       </c>
       <c r="D66">
-        <v>0.02000270369732382</v>
+        <v>0.06594973805019703</v>
       </c>
       <c r="E66">
-        <v>-0.04777874677821291</v>
+        <v>-0.01184608288239696</v>
       </c>
       <c r="F66">
-        <v>-0.04928323395151524</v>
+        <v>0.07162202025803766</v>
       </c>
       <c r="G66">
-        <v>0.01226512032043305</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.0433991626559981</v>
+      </c>
+      <c r="H66">
+        <v>-0.06269427201273797</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02542992769518292</v>
+        <v>0.03197439896990183</v>
       </c>
       <c r="C67">
-        <v>0.01017787428693235</v>
+        <v>-0.0244290935247756</v>
       </c>
       <c r="D67">
-        <v>-0.01626502221767841</v>
+        <v>-0.01060005598816915</v>
       </c>
       <c r="E67">
-        <v>0.02917803602640853</v>
+        <v>0.003018758431582001</v>
       </c>
       <c r="F67">
-        <v>-0.01982822771861944</v>
+        <v>0.01121393902047269</v>
       </c>
       <c r="G67">
-        <v>-0.003391174436898415</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01608828483292582</v>
+      </c>
+      <c r="H67">
+        <v>-0.03224669441315314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08608447829665154</v>
+        <v>0.1196855654078915</v>
       </c>
       <c r="C68">
-        <v>0.07995656289448813</v>
+        <v>-0.03307246965799955</v>
       </c>
       <c r="D68">
-        <v>-0.04621809758659837</v>
+        <v>-0.1969248092296896</v>
       </c>
       <c r="E68">
-        <v>0.1807376112269014</v>
+        <v>-0.02381108955709839</v>
       </c>
       <c r="F68">
-        <v>-0.008225253135666504</v>
+        <v>-0.1211047217475119</v>
       </c>
       <c r="G68">
-        <v>-0.04523342260736094</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01373390912048494</v>
+      </c>
+      <c r="H68">
+        <v>0.04923384163000558</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07085963595022962</v>
+        <v>0.05580699108797532</v>
       </c>
       <c r="C69">
-        <v>0.03823267309666883</v>
+        <v>-0.04068605050434404</v>
       </c>
       <c r="D69">
-        <v>0.02462839525434975</v>
+        <v>0.01603617160743629</v>
       </c>
       <c r="E69">
-        <v>-0.01232100293669733</v>
+        <v>-0.008488066458993096</v>
       </c>
       <c r="F69">
-        <v>-0.01962639795668585</v>
+        <v>0.03294151431478657</v>
       </c>
       <c r="G69">
-        <v>0.05960556404106029</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.005200893697905113</v>
+      </c>
+      <c r="H69">
+        <v>0.009475226437610687</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09972571574053428</v>
+        <v>0.1153698388384425</v>
       </c>
       <c r="C71">
-        <v>0.08397474672623086</v>
+        <v>-0.04160334715549555</v>
       </c>
       <c r="D71">
-        <v>-0.02151545355260044</v>
+        <v>-0.1854470499494266</v>
       </c>
       <c r="E71">
-        <v>0.2296750108557255</v>
+        <v>-0.02732581630618728</v>
       </c>
       <c r="F71">
-        <v>-0.04250782899484556</v>
+        <v>-0.1290615761173148</v>
       </c>
       <c r="G71">
-        <v>0.01074339616578094</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02044910399761956</v>
+      </c>
+      <c r="H71">
+        <v>0.02132328475875784</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1028955353200963</v>
+        <v>0.08466186657632718</v>
       </c>
       <c r="C72">
-        <v>0.1188627676605556</v>
+        <v>-0.06263773031270936</v>
       </c>
       <c r="D72">
-        <v>0.01707272164222062</v>
+        <v>0.04395582359644075</v>
       </c>
       <c r="E72">
-        <v>-0.09017392282014269</v>
+        <v>-0.01343170390786186</v>
       </c>
       <c r="F72">
-        <v>-0.06712321806659943</v>
+        <v>0.1285174406625043</v>
       </c>
       <c r="G72">
-        <v>-0.1454336484627423</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.08509995231483031</v>
+      </c>
+      <c r="H72">
+        <v>-0.138980416656182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2407587527880572</v>
+        <v>0.2312038113346963</v>
       </c>
       <c r="C73">
-        <v>0.1141753651235939</v>
+        <v>-0.09630228862630244</v>
       </c>
       <c r="D73">
-        <v>0.05945672715212683</v>
+        <v>0.01320710136513509</v>
       </c>
       <c r="E73">
-        <v>0.03208259251458385</v>
+        <v>-0.09108972060500148</v>
       </c>
       <c r="F73">
-        <v>-0.2181987378402863</v>
+        <v>0.08059345914153007</v>
       </c>
       <c r="G73">
-        <v>-0.4413255651411704</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2036307070486792</v>
+      </c>
+      <c r="H73">
+        <v>-0.5099831089938984</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1199614665106872</v>
+        <v>0.1072738211515577</v>
       </c>
       <c r="C74">
-        <v>0.04178102991765249</v>
+        <v>-0.07296529642436843</v>
       </c>
       <c r="D74">
-        <v>0.02443685559033577</v>
+        <v>0.05259831165880504</v>
       </c>
       <c r="E74">
-        <v>-0.04052181898041914</v>
+        <v>-0.008516037887421727</v>
       </c>
       <c r="F74">
-        <v>0.1171481257265144</v>
+        <v>0.07684476438567978</v>
       </c>
       <c r="G74">
-        <v>0.01199633183964999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.09038918919275646</v>
+      </c>
+      <c r="H74">
+        <v>0.0004207557908447074</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2176335236158705</v>
+        <v>0.2162272871930393</v>
       </c>
       <c r="C75">
-        <v>0.1181758717493113</v>
+        <v>-0.148808477274059</v>
       </c>
       <c r="D75">
-        <v>0.06481377550785859</v>
+        <v>0.06212042008783816</v>
       </c>
       <c r="E75">
-        <v>-0.09130328167298039</v>
+        <v>-0.03366091804957508</v>
       </c>
       <c r="F75">
-        <v>0.1795793015495123</v>
+        <v>0.1487884344782162</v>
       </c>
       <c r="G75">
-        <v>0.0791314087718262</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1613339591268224</v>
+      </c>
+      <c r="H75">
+        <v>0.08591928168488089</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2561786621928261</v>
+        <v>0.2037643933379543</v>
       </c>
       <c r="C76">
-        <v>0.1341190710743349</v>
+        <v>-0.1447813143877308</v>
       </c>
       <c r="D76">
-        <v>0.007049821108569063</v>
+        <v>0.06439144362695981</v>
       </c>
       <c r="E76">
-        <v>-0.07759735035057758</v>
+        <v>0.007782280888238161</v>
       </c>
       <c r="F76">
-        <v>0.208464961789566</v>
+        <v>0.1560760702857339</v>
       </c>
       <c r="G76">
-        <v>0.0824836086006548</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1798763305161784</v>
+      </c>
+      <c r="H76">
+        <v>0.09545278483825671</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1340070481246272</v>
+        <v>0.07689355603877349</v>
       </c>
       <c r="C77">
-        <v>-0.0201876974925562</v>
+        <v>-0.02546665677881537</v>
       </c>
       <c r="D77">
-        <v>0.06046965310785356</v>
+        <v>0.07763759480976529</v>
       </c>
       <c r="E77">
-        <v>-0.08902379841174395</v>
+        <v>-0.01583650799384206</v>
       </c>
       <c r="F77">
-        <v>-0.1959749761694865</v>
+        <v>0.006145115903838863</v>
       </c>
       <c r="G77">
-        <v>0.1198404696520365</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1141704782100741</v>
+      </c>
+      <c r="H77">
+        <v>0.06137768421781702</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04946782757482592</v>
+        <v>0.03676835651555139</v>
       </c>
       <c r="C78">
-        <v>0.01050409011236605</v>
+        <v>-0.01804088274204021</v>
       </c>
       <c r="D78">
-        <v>0.02660700759048434</v>
+        <v>0.04949739753053999</v>
       </c>
       <c r="E78">
-        <v>-0.1031356946413681</v>
+        <v>0.0008255633967526432</v>
       </c>
       <c r="F78">
-        <v>-0.03299251638202885</v>
+        <v>0.05139134271170626</v>
       </c>
       <c r="G78">
-        <v>0.05571027823846135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.0463206643200991</v>
+      </c>
+      <c r="H78">
+        <v>-0.03083146772041686</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2097123226695279</v>
+        <v>0.1745910838585401</v>
       </c>
       <c r="C80">
-        <v>-0.1669106671764152</v>
+        <v>-0.08874689343182368</v>
       </c>
       <c r="D80">
-        <v>-0.9263991370743488</v>
+        <v>0.05117974403439819</v>
       </c>
       <c r="E80">
-        <v>-0.213533855027337</v>
+        <v>0.9593236166578678</v>
       </c>
       <c r="F80">
-        <v>-0.04473658164526081</v>
+        <v>-0.1029396627519281</v>
       </c>
       <c r="G80">
-        <v>-0.04748107454605271</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1052295304516036</v>
+      </c>
+      <c r="H80">
+        <v>-0.005989353769740469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1537879174277876</v>
+        <v>0.1464221808931003</v>
       </c>
       <c r="C81">
-        <v>0.1048707481255484</v>
+        <v>-0.1010345790420305</v>
       </c>
       <c r="D81">
-        <v>0.02032529898116413</v>
+        <v>0.03803371978658076</v>
       </c>
       <c r="E81">
-        <v>-0.07055696794593401</v>
+        <v>-0.00702752858234441</v>
       </c>
       <c r="F81">
-        <v>0.1823162560139952</v>
+        <v>0.1098623560415871</v>
       </c>
       <c r="G81">
-        <v>0.01144348683643507</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1130780374694851</v>
+      </c>
+      <c r="H81">
+        <v>0.07114392704894403</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05181003025623396</v>
+        <v>0.03890818049153169</v>
       </c>
       <c r="C83">
-        <v>-0.01022768404680855</v>
+        <v>-0.01563927302707392</v>
       </c>
       <c r="D83">
-        <v>0.03633245263216145</v>
+        <v>0.02093913105570889</v>
       </c>
       <c r="E83">
-        <v>-0.04430200605436817</v>
+        <v>-0.01410733847834961</v>
       </c>
       <c r="F83">
-        <v>-0.07577059829942039</v>
+        <v>0.01343628400017896</v>
       </c>
       <c r="G83">
-        <v>0.06537755004579435</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05481624210754381</v>
+      </c>
+      <c r="H83">
+        <v>-0.01940463553760808</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2256930459245806</v>
+        <v>0.2063933511101517</v>
       </c>
       <c r="C85">
-        <v>0.1022004738164091</v>
+        <v>-0.1287435732629319</v>
       </c>
       <c r="D85">
-        <v>0.03342216240049883</v>
+        <v>0.08359124859828883</v>
       </c>
       <c r="E85">
-        <v>-0.06473335977906951</v>
+        <v>-0.02228726375477959</v>
       </c>
       <c r="F85">
-        <v>0.2002826143792817</v>
+        <v>0.140923261859063</v>
       </c>
       <c r="G85">
-        <v>0.067877169517436</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1682152537635448</v>
+      </c>
+      <c r="H85">
+        <v>0.06258235742185085</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003206024144666605</v>
+        <v>0.0106416689981423</v>
       </c>
       <c r="C86">
-        <v>-0.008799670419551552</v>
+        <v>0.0009998763227901178</v>
       </c>
       <c r="D86">
-        <v>0.003451496156990416</v>
+        <v>0.01369991030732787</v>
       </c>
       <c r="E86">
-        <v>-0.07136370423948551</v>
+        <v>-0.006280850791789624</v>
       </c>
       <c r="F86">
-        <v>-0.07205296681640538</v>
+        <v>0.007907066403865761</v>
       </c>
       <c r="G86">
-        <v>0.05398983954462264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.07240912224369524</v>
+      </c>
+      <c r="H86">
+        <v>-0.04076831730681169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02903189351169748</v>
+        <v>0.02649629781182887</v>
       </c>
       <c r="C87">
-        <v>0.008855534526251345</v>
+        <v>-0.008187553738559165</v>
       </c>
       <c r="D87">
-        <v>0.008859040146190291</v>
+        <v>0.0242496129870679</v>
       </c>
       <c r="E87">
-        <v>-0.03974778527382469</v>
+        <v>-0.002057173682330356</v>
       </c>
       <c r="F87">
-        <v>-0.06182738260935768</v>
+        <v>0.02952724956178659</v>
       </c>
       <c r="G87">
-        <v>0.01141118220589568</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08523142865040434</v>
+      </c>
+      <c r="H87">
+        <v>-0.02685297109573839</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.007525358243731045</v>
+        <v>0.04012773993145131</v>
       </c>
       <c r="C88">
-        <v>0.02095828999727689</v>
+        <v>0.002415253604806997</v>
       </c>
       <c r="D88">
-        <v>-0.02107519376269316</v>
+        <v>-0.0110301512869477</v>
       </c>
       <c r="E88">
-        <v>0.002263410716418708</v>
+        <v>0.005667241301394754</v>
       </c>
       <c r="F88">
-        <v>-0.03140113611505915</v>
+        <v>0.01030651725439216</v>
       </c>
       <c r="G88">
-        <v>0.08783305503787961</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.004399713585576564</v>
+      </c>
+      <c r="H88">
+        <v>-0.01429017725053932</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1169456078021376</v>
+        <v>0.1856699926287497</v>
       </c>
       <c r="C89">
-        <v>0.1006358525305647</v>
+        <v>-0.06221140081293124</v>
       </c>
       <c r="D89">
-        <v>-0.02837811521307735</v>
+        <v>-0.329822467274258</v>
       </c>
       <c r="E89">
-        <v>0.3116591806215419</v>
+        <v>-0.06155950326982548</v>
       </c>
       <c r="F89">
-        <v>-0.09502002275333292</v>
+        <v>-0.1964429178921167</v>
       </c>
       <c r="G89">
-        <v>0.03743191304474083</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.01146805889275111</v>
+      </c>
+      <c r="H89">
+        <v>0.01726316293142099</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1105562462518425</v>
+        <v>0.1436926712199685</v>
       </c>
       <c r="C90">
-        <v>0.1021716435552927</v>
+        <v>-0.04820005535053545</v>
       </c>
       <c r="D90">
-        <v>-0.08277192594762857</v>
+        <v>-0.2812943041574229</v>
       </c>
       <c r="E90">
-        <v>0.2809504782799876</v>
+        <v>-0.03307855429104342</v>
       </c>
       <c r="F90">
-        <v>-0.06096584623959237</v>
+        <v>-0.180284983803799</v>
       </c>
       <c r="G90">
-        <v>-0.01975197984057801</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02514907079696082</v>
+      </c>
+      <c r="H90">
+        <v>0.03989872830862647</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2850201931337282</v>
+        <v>0.2265871640282079</v>
       </c>
       <c r="C91">
-        <v>0.1066215154775502</v>
+        <v>-0.1533104123121111</v>
       </c>
       <c r="D91">
-        <v>0.06016646606133788</v>
+        <v>0.0763311635329328</v>
       </c>
       <c r="E91">
-        <v>-0.05276763590282664</v>
+        <v>-0.02767235456913241</v>
       </c>
       <c r="F91">
-        <v>0.2490642315661251</v>
+        <v>0.14543978710311</v>
       </c>
       <c r="G91">
-        <v>0.02678370962424696</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2186042548310308</v>
+      </c>
+      <c r="H91">
+        <v>0.1153907728809557</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1811108954656739</v>
+        <v>0.2036687867398215</v>
       </c>
       <c r="C92">
-        <v>0.09610237274937292</v>
+        <v>-0.1309892575198155</v>
       </c>
       <c r="D92">
-        <v>-0.1042561276155885</v>
+        <v>-0.248057892783858</v>
       </c>
       <c r="E92">
-        <v>0.4302739400991593</v>
+        <v>-0.02289717878468705</v>
       </c>
       <c r="F92">
-        <v>-0.1203736816119479</v>
+        <v>-0.1539279135062054</v>
       </c>
       <c r="G92">
-        <v>0.3596279560855513</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.03642654632598529</v>
+      </c>
+      <c r="H92">
+        <v>0.1338810918790745</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1203424449587634</v>
+        <v>0.1644408365664803</v>
       </c>
       <c r="C93">
-        <v>0.08613857461368035</v>
+        <v>-0.06233921387633667</v>
       </c>
       <c r="D93">
-        <v>-0.08794965899324227</v>
+        <v>-0.3043644905822519</v>
       </c>
       <c r="E93">
-        <v>0.3970368747296018</v>
+        <v>-0.04927479470535025</v>
       </c>
       <c r="F93">
-        <v>-0.01591640838563848</v>
+        <v>-0.2219057954959552</v>
       </c>
       <c r="G93">
-        <v>-0.03099014206351767</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.02958847471512995</v>
+      </c>
+      <c r="H93">
+        <v>-0.01679426044430605</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2588235727489976</v>
+        <v>0.2465922963308964</v>
       </c>
       <c r="C94">
-        <v>0.1333721068411489</v>
+        <v>-0.145351698986546</v>
       </c>
       <c r="D94">
-        <v>0.02690130505640973</v>
+        <v>0.05298045301174015</v>
       </c>
       <c r="E94">
-        <v>-0.07895182902693275</v>
+        <v>-0.04170442651399436</v>
       </c>
       <c r="F94">
-        <v>0.2973863666597263</v>
+        <v>0.1599620328221668</v>
       </c>
       <c r="G94">
-        <v>0.0004224274009491497</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2353323808111312</v>
+      </c>
+      <c r="H94">
+        <v>0.1243988792305924</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.09062100081619448</v>
+        <v>0.06776730202942195</v>
       </c>
       <c r="C95">
-        <v>0.02533346617241559</v>
+        <v>-0.04858599691257077</v>
       </c>
       <c r="D95">
-        <v>0.06597115604602627</v>
+        <v>0.06844360519388949</v>
       </c>
       <c r="E95">
-        <v>-0.09551666502436815</v>
+        <v>-0.07789181242221584</v>
       </c>
       <c r="F95">
-        <v>-0.05675801170584987</v>
+        <v>0.03435335487222221</v>
       </c>
       <c r="G95">
-        <v>0.3397248633645974</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06597441326348098</v>
+      </c>
+      <c r="H95">
+        <v>-0.009133451067554803</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1812375274889819</v>
+        <v>0.1649892458151193</v>
       </c>
       <c r="C98">
-        <v>0.06195231536338313</v>
+        <v>-0.1024544684629335</v>
       </c>
       <c r="D98">
-        <v>0.04476136739264025</v>
+        <v>0.004063621830372439</v>
       </c>
       <c r="E98">
-        <v>0.07460922144452224</v>
+        <v>-0.06109416419586808</v>
       </c>
       <c r="F98">
-        <v>-0.0941515988361336</v>
+        <v>0.03406105204172361</v>
       </c>
       <c r="G98">
-        <v>-0.2804761365080358</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1705354811006752</v>
+      </c>
+      <c r="H98">
+        <v>-0.3614684884103766</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003841586784026601</v>
+        <v>0.01437146091624262</v>
       </c>
       <c r="C101">
-        <v>0.02682036970447917</v>
+        <v>-0.003124624521497293</v>
       </c>
       <c r="D101">
-        <v>0.0111141764960608</v>
+        <v>0.005144486021236424</v>
       </c>
       <c r="E101">
-        <v>-0.1194498314580187</v>
+        <v>0.003569331480126324</v>
       </c>
       <c r="F101">
-        <v>-0.1851321999971838</v>
+        <v>0.03707825155940272</v>
       </c>
       <c r="G101">
-        <v>-0.01604362976446495</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09411800580320934</v>
+      </c>
+      <c r="H101">
+        <v>0.07120594384043331</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.0971190884026627</v>
+        <v>0.1071317943561267</v>
       </c>
       <c r="C102">
-        <v>0.02888958622270191</v>
+        <v>-0.05887445289641331</v>
       </c>
       <c r="D102">
-        <v>0.01372456292989709</v>
+        <v>0.04269244028530458</v>
       </c>
       <c r="E102">
-        <v>-0.0834403767367384</v>
+        <v>-0.005016576137989653</v>
       </c>
       <c r="F102">
-        <v>0.140287650857075</v>
+        <v>0.07423937944085457</v>
       </c>
       <c r="G102">
-        <v>0.07834298454192735</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.1013537463009319</v>
+      </c>
+      <c r="H102">
+        <v>0.05943842199286421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02563487570344719</v>
+        <v>0.02226663546743025</v>
       </c>
       <c r="C103">
-        <v>0.009885352697720258</v>
+        <v>-0.01331166385643471</v>
       </c>
       <c r="D103">
-        <v>0.008345666928493466</v>
+        <v>0.01206475023713262</v>
       </c>
       <c r="E103">
-        <v>-0.01683758639806458</v>
+        <v>0.005896344391983192</v>
       </c>
       <c r="F103">
-        <v>0.02692897878977162</v>
+        <v>0.01865072139733583</v>
       </c>
       <c r="G103">
-        <v>0.03232323375684307</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01090708832580877</v>
+      </c>
+      <c r="H103">
+        <v>0.008478721538811072</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.4402173271722913</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.8752790884577296</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.06163061369188051</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.024375052530815</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1555813746714445</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03963355015531558</v>
+      </c>
+      <c r="H104">
+        <v>0.03322973930117785</v>
       </c>
     </row>
   </sheetData>
